--- a/log_history/Y2_B2526_Biochemistry_Lab_CBL_scanner1763544200107_9fbf2872f56f41c0c5d26a9ea3581d205ff3a330fcdf08918e1274f3b2fbe5d4.xlsx
+++ b/log_history/Y2_B2526_Biochemistry_Lab_CBL_scanner1763544200107_9fbf2872f56f41c0c5d26a9ea3581d205ff3a330fcdf08918e1274f3b2fbe5d4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Biochemistry_Lab_CBL" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
